--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/4.1 Plantilla_Vehiculos_hibridos_Recorrido.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/4.1 Plantilla_Vehiculos_hibridos_Recorrido.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Nuevas  Plantillas con alfonso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B172F-B90F-44B1-A8DB-201D8716B660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1F0D9A-6891-4CA4-B413-CDF7A27E06D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{DAE020CA-F559-4DCB-9F51-5E660B0A1B15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DAE020CA-F559-4DCB-9F51-5E660B0A1B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Hibridos recorrido" sheetId="1" r:id="rId1"/>
@@ -40,32 +40,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dell</author>
-  </authors>
-  <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{4B384ACF-8370-4396-8DEB-94B2FAA887BA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Año</t>
   </si>
@@ -162,6 +138,9 @@
   <si>
     <t>Placa del Vehículo Eléctrico. Inserte su dato.</t>
   </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
 </sst>
 </file>
 
@@ -223,10 +202,10 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -267,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -303,12 +282,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +399,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,11 +723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9389584-4294-4599-8F64-9A5871D88A27}">
-  <dimension ref="A1:K311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9389584-4294-4599-8F64-9A5871D88A27}">
+  <dimension ref="A1:K312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,94 +780,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="6" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>2018</v>
       </c>
-      <c r="B3" s="22">
-        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_tipve,2,)</f>
+      <c r="B4" s="22">
+        <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_tipve,2,)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22">
-        <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_combustible,2,)</f>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_combustible,2,)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F4" s="23">
         <v>14400</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G4" s="23">
         <v>43200</v>
       </c>
-      <c r="H3" s="22">
-        <f t="shared" ref="H3:H66" si="2">VLOOKUP(I3,Tabla_combustibleINI,2,)</f>
+      <c r="H4" s="22">
+        <f t="shared" ref="H4:H67" si="2">VLOOKUP(I4,Tabla_combustibleINI,2,)</f>
         <v>3</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J4" s="24">
         <v>0.16289999999999999</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -911,26 +929,26 @@
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="e">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="e">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="e">
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -1026,7 +1044,7 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1048,7 +1066,7 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -2211,19 +2229,19 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19" t="e">
-        <f t="shared" ref="B67:B130" si="3">VLOOKUP(C67,Tabla_tipve,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="e">
-        <f t="shared" ref="D67:D130" si="4">VLOOKUP(E67,Tabla_combustible,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="19" t="e">
-        <f t="shared" ref="H67:H130" si="5">VLOOKUP(I67,Tabla_combustibleINI,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I67" s="19"/>
@@ -2233,19 +2251,19 @@
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B68:B131" si="3">VLOOKUP(C68,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D68:D131" si="4">VLOOKUP(E68,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="19" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H68:H131" si="5">VLOOKUP(I68,Tabla_combustibleINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="I68" s="19"/>
@@ -3619,19 +3637,19 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="19" t="e">
-        <f t="shared" ref="B131:B194" si="6">VLOOKUP(C131,Tabla_tipve,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="19" t="e">
-        <f t="shared" ref="D131:D194" si="7">VLOOKUP(E131,Tabla_combustible,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="19" t="e">
-        <f t="shared" ref="H131:H194" si="8">VLOOKUP(I131,Tabla_combustibleINI,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I131" s="19"/>
@@ -3641,19 +3659,19 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="19" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B132:B195" si="6">VLOOKUP(C132,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="19" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D132:D195" si="7">VLOOKUP(E132,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="19" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H132:H195" si="8">VLOOKUP(I132,Tabla_combustibleINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="I132" s="19"/>
@@ -5027,19 +5045,19 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="19"/>
       <c r="B195" s="19" t="e">
-        <f t="shared" ref="B195:B258" si="9">VLOOKUP(C195,Tabla_tipve,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C195" s="19"/>
       <c r="D195" s="19" t="e">
-        <f t="shared" ref="D195:D258" si="10">VLOOKUP(E195,Tabla_combustible,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E195" s="19"/>
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
       <c r="H195" s="19" t="e">
-        <f t="shared" ref="H195:H258" si="11">VLOOKUP(I195,Tabla_combustibleINI,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I195" s="19"/>
@@ -5049,19 +5067,19 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="19"/>
       <c r="B196" s="19" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B196:B259" si="9">VLOOKUP(C196,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C196" s="19"/>
       <c r="D196" s="19" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D196:D259" si="10">VLOOKUP(E196,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E196" s="19"/>
       <c r="F196" s="20"/>
       <c r="G196" s="20"/>
       <c r="H196" s="19" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H196:H259" si="11">VLOOKUP(I196,Tabla_combustibleINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="I196" s="19"/>
@@ -6435,19 +6453,19 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="19"/>
       <c r="B259" s="19" t="e">
-        <f t="shared" ref="B259:B311" si="12">VLOOKUP(C259,Tabla_tipve,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C259" s="19"/>
       <c r="D259" s="19" t="e">
-        <f t="shared" ref="D259:D311" si="13">VLOOKUP(E259,Tabla_combustible,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E259" s="19"/>
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
       <c r="H259" s="19" t="e">
-        <f t="shared" ref="H259:H311" si="14">VLOOKUP(I259,Tabla_combustibleINI,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="I259" s="19"/>
@@ -6457,19 +6475,19 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="19"/>
       <c r="B260" s="19" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B260:B312" si="12">VLOOKUP(C260,Tabla_tipve,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="19"/>
       <c r="D260" s="19" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D260:D312" si="13">VLOOKUP(E260,Tabla_combustible,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E260" s="19"/>
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
       <c r="H260" s="19" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H260:H312" si="14">VLOOKUP(I260,Tabla_combustibleINI,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="I260" s="19"/>
@@ -7598,32 +7616,56 @@
       <c r="J311" s="21"/>
       <c r="K311" s="20"/>
     </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="19"/>
+      <c r="B312" s="19" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C312" s="19"/>
+      <c r="D312" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E312" s="19"/>
+      <c r="F312" s="20"/>
+      <c r="G312" s="20"/>
+      <c r="H312" s="19" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I312" s="19"/>
+      <c r="J312" s="21"/>
+      <c r="K312" s="20"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DJxM9OgtwN6NQYjzyix9q+A3+qNZ1VG1nm6vcUiOZP7VS/T3w2IZaqge0hipsFydkRccCyE/YKGFVguDmbj9FQ==" saltValue="ic3FtHjTT5kD5bNWtzdjtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jgyc0dXA647PWb7RkRQifSsJ3OB0KPtTihDArlxcQ2tk/pHbytkLix/kCb3M0Ja8cPFYfqKv+HDV8qLE1kQGnA==" saltValue="MZ1JPQq9iKbJJxo8DflE8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{69E732A6-32C5-4DCE-8115-533C6DABD60F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A312" xr:uid="{69E732A6-32C5-4DCE-8115-533C6DABD60F}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C311" xr:uid="{2021B91A-EF4F-47FC-A9F2-163B07827DEE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C312" xr:uid="{2021B91A-EF4F-47FC-A9F2-163B07827DEE}">
       <formula1>Lista_tipve</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E311" xr:uid="{9E8D1A8D-D491-4C00-9478-38167A3C3822}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E312" xr:uid="{9E8D1A8D-D491-4C00-9478-38167A3C3822}">
       <formula1>Lista_combustible</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I311" xr:uid="{DA5F860E-8EF7-43E2-B2A9-08ACD9B33640}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I312" xr:uid="{DA5F860E-8EF7-43E2-B2A9-08ACD9B33640}">
       <formula1>Lista_combustibleINI</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="F3:G311" xr:uid="{6C702E76-18A0-424C-B502-9E31CA7EC5BF}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="F4:G312" xr:uid="{6C702E76-18A0-424C-B502-9E31CA7EC5BF}">
       <formula1>0</formula1>
       <formula2>9999999.99</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J311" xr:uid="{CB57068F-EF56-4B53-820C-5865A780F266}">
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J312" xr:uid="{CB57068F-EF56-4B53-820C-5865A780F266}">
       <formula1>99.99</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
